--- a/workbooks/Summary.xlsx
+++ b/workbooks/Summary.xlsx
@@ -15,10 +15,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
-    <numFmt numFmtId="165" formatCode="[hh]:mm:ss"/>
-    <numFmt numFmtId="166" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="yyyy-mm-dd h:mm:ss"/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -56,6 +55,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="00FFCCCC"/>
+        <bgColor rgb="00FFCCCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="00CCFFCC"/>
         <bgColor rgb="00CCFFCC"/>
       </patternFill>
@@ -64,12 +69,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="00FFE5CC"/>
         <bgColor rgb="00FFE5CC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFCCCC"/>
-        <bgColor rgb="00FFCCCC"/>
       </patternFill>
     </fill>
     <fill>
@@ -161,7 +160,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -191,6 +190,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -200,14 +202,11 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -216,7 +215,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
@@ -610,7 +608,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E82"/>
+  <dimension ref="A1:E94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -618,11 +616,11 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="47" customWidth="1" min="1" max="1"/>
-    <col width="27" customWidth="1" min="2" max="2"/>
+    <col width="30" customWidth="1" min="1" max="1"/>
+    <col width="21" customWidth="1" min="2" max="2"/>
     <col width="15" customWidth="1" min="3" max="3"/>
     <col width="35" customWidth="1" min="4" max="4"/>
-    <col width="24" customWidth="1" min="5" max="5"/>
+    <col width="20" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -631,13 +629,13 @@
           <t>General Summary of Backups</t>
         </is>
       </c>
-      <c r="B1" s="23" t="n"/>
+      <c r="B1" s="22" t="n"/>
       <c r="D1" s="18" t="inlineStr">
         <is>
           <t>General Summary of Recent Backups</t>
         </is>
       </c>
-      <c r="E1" s="23" t="n"/>
+      <c r="E1" s="22" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="20" t="inlineStr">
@@ -668,7 +666,7 @@
         </is>
       </c>
       <c r="B3" s="19" t="n">
-        <v>123</v>
+        <v>439</v>
       </c>
       <c r="D3" s="19" t="inlineStr">
         <is>
@@ -676,7 +674,7 @@
         </is>
       </c>
       <c r="E3" s="19" t="n">
-        <v>20</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4">
@@ -686,7 +684,7 @@
         </is>
       </c>
       <c r="B4" s="19" t="n">
-        <v>64</v>
+        <v>263</v>
       </c>
       <c r="D4" s="19" t="inlineStr">
         <is>
@@ -694,7 +692,7 @@
         </is>
       </c>
       <c r="E4" s="19" t="n">
-        <v>15</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5">
@@ -704,7 +702,7 @@
         </is>
       </c>
       <c r="B5" s="19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D5" s="19" t="inlineStr">
         <is>
@@ -712,7 +710,7 @@
         </is>
       </c>
       <c r="E5" s="19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -722,7 +720,7 @@
         </is>
       </c>
       <c r="B6" s="19" t="n">
-        <v>57</v>
+        <v>173</v>
       </c>
       <c r="D6" s="19" t="inlineStr">
         <is>
@@ -730,7 +728,7 @@
         </is>
       </c>
       <c r="E6" s="19" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -740,7 +738,7 @@
         </is>
       </c>
       <c r="B7" s="19" t="n">
-        <v>116</v>
+        <v>366</v>
       </c>
       <c r="D7" s="19" t="inlineStr">
         <is>
@@ -748,7 +746,7 @@
         </is>
       </c>
       <c r="E7" s="19" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -758,7 +756,7 @@
         </is>
       </c>
       <c r="B8" s="19" t="n">
-        <v>15.72322710238821</v>
+        <v>15.09350063176253</v>
       </c>
       <c r="D8" s="19" t="inlineStr">
         <is>
@@ -766,7 +764,7 @@
         </is>
       </c>
       <c r="E8" s="19" t="n">
-        <v>79.6747314453125</v>
+        <v>127.7960340711805</v>
       </c>
     </row>
     <row r="9">
@@ -775,16 +773,20 @@
           <t>Average Backup Duration</t>
         </is>
       </c>
-      <c r="B9" s="21" t="n">
-        <v>0.007407592592592592</v>
+      <c r="B9" s="19" t="inlineStr">
+        <is>
+          <t>00:16:20</t>
+        </is>
       </c>
       <c r="D9" s="19" t="inlineStr">
         <is>
           <t>Average Backup Duration</t>
         </is>
       </c>
-      <c r="E9" s="21" t="n">
-        <v>0.02300520833333334</v>
+      <c r="E9" s="19" t="inlineStr">
+        <is>
+          <t>01:01:38</t>
+        </is>
       </c>
     </row>
     <row r="10">
@@ -794,7 +796,7 @@
         </is>
       </c>
       <c r="B10" s="19" t="n">
-        <v>2.397675600127761</v>
+        <v>2.334820579184833</v>
       </c>
       <c r="D10" s="19" t="inlineStr">
         <is>
@@ -802,7 +804,7 @@
         </is>
       </c>
       <c r="E10" s="19" t="n">
-        <v>5.98399224418209</v>
+        <v>6.135765537690324</v>
       </c>
     </row>
     <row r="11">
@@ -812,7 +814,7 @@
         </is>
       </c>
       <c r="B11" s="19" t="n">
-        <v>1.651219512195122</v>
+        <v>1.75626423690205</v>
       </c>
       <c r="D11" s="19" t="inlineStr">
         <is>
@@ -820,7 +822,7 @@
         </is>
       </c>
       <c r="E11" s="19" t="n">
-        <v>2.005</v>
+        <v>2.083333333333334</v>
       </c>
     </row>
     <row r="12">
@@ -830,7 +832,7 @@
         </is>
       </c>
       <c r="B12" s="19" t="n">
-        <v>1.272357723577236</v>
+        <v>1.255125284738041</v>
       </c>
       <c r="D12" s="19" t="inlineStr">
         <is>
@@ -838,7 +840,7 @@
         </is>
       </c>
       <c r="E12" s="19" t="n">
-        <v>2.415</v>
+        <v>2.141666666666667</v>
       </c>
     </row>
     <row r="14">
@@ -847,13 +849,13 @@
           <t>Largest Backups</t>
         </is>
       </c>
-      <c r="B14" s="23" t="n"/>
+      <c r="B14" s="22" t="n"/>
       <c r="D14" s="18" t="inlineStr">
         <is>
           <t>Smallest Backups</t>
         </is>
       </c>
-      <c r="E14" s="23" t="n"/>
+      <c r="E14" s="22" t="n"/>
     </row>
     <row r="15">
       <c r="A15" s="20" t="inlineStr">
@@ -880,11 +882,11 @@
     <row r="16">
       <c r="A16" s="19" t="inlineStr">
         <is>
-          <t>Serwery INTRANET (Full)</t>
+          <t>VMs FORTINET (Full)</t>
         </is>
       </c>
       <c r="B16" s="19" t="n">
-        <v>1126.4</v>
+        <v>1536</v>
       </c>
       <c r="D16" s="19" t="inlineStr">
         <is>
@@ -898,11 +900,11 @@
     <row r="17">
       <c r="A17" s="19" t="inlineStr">
         <is>
-          <t>_Win2012R2_manage_rm_2024-07-07T213201 (Full)</t>
+          <t>Serwery INTRANET (Full)</t>
         </is>
       </c>
       <c r="B17" s="19" t="n">
-        <v>132.5</v>
+        <v>1126.4</v>
       </c>
       <c r="D17" s="19" t="inlineStr">
         <is>
@@ -916,11 +918,11 @@
     <row r="18">
       <c r="A18" s="19" t="inlineStr">
         <is>
-          <t>KONAR-TEST (Full)</t>
+          <t>CCTW-Ansys (Full)</t>
         </is>
       </c>
       <c r="B18" s="19" t="n">
-        <v>92.3</v>
+        <v>749.8</v>
       </c>
       <c r="D18" s="19" t="inlineStr">
         <is>
@@ -937,9 +939,9 @@
           <t>Machine Backup Summary</t>
         </is>
       </c>
-      <c r="B20" s="24" t="n"/>
-      <c r="C20" s="24" t="n"/>
-      <c r="D20" s="23" t="n"/>
+      <c r="B20" s="23" t="n"/>
+      <c r="C20" s="23" t="n"/>
+      <c r="D20" s="22" t="n"/>
     </row>
     <row r="21">
       <c r="A21" s="20" t="inlineStr">
@@ -959,7 +961,7 @@
       </c>
       <c r="D21" s="20" t="inlineStr">
         <is>
-          <t>Last Backup Date</t>
+          <t>Last Backup Date and Time</t>
         </is>
       </c>
     </row>
@@ -975,10 +977,10 @@
         </is>
       </c>
       <c r="C22" s="19" t="n">
-        <v>9</v>
-      </c>
-      <c r="D22" s="22" t="n">
-        <v>45475</v>
+        <v>19</v>
+      </c>
+      <c r="D22" s="21" t="n">
+        <v>45514.93792824074</v>
       </c>
     </row>
     <row r="23">
@@ -989,14 +991,14 @@
       </c>
       <c r="B23" s="19" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>Success</t>
         </is>
       </c>
       <c r="C23" s="19" t="n">
-        <v>10</v>
-      </c>
-      <c r="D23" s="22" t="n">
-        <v>45475</v>
+        <v>20</v>
+      </c>
+      <c r="D23" s="21" t="n">
+        <v>45514.93791666667</v>
       </c>
     </row>
     <row r="24">
@@ -1013,8 +1015,8 @@
       <c r="C24" s="19" t="n">
         <v>1</v>
       </c>
-      <c r="D24" s="22" t="n">
-        <v>45475</v>
+      <c r="D24" s="21" t="n">
+        <v>45475.58827546296</v>
       </c>
     </row>
     <row r="25">
@@ -1029,10 +1031,10 @@
         </is>
       </c>
       <c r="C25" s="19" t="n">
-        <v>13</v>
-      </c>
-      <c r="D25" s="22" t="n">
-        <v>45475</v>
+        <v>35</v>
+      </c>
+      <c r="D25" s="21" t="n">
+        <v>45514.18777777778</v>
       </c>
     </row>
     <row r="26">
@@ -1049,8 +1051,8 @@
       <c r="C26" s="19" t="n">
         <v>2</v>
       </c>
-      <c r="D26" s="22" t="n">
-        <v>45480</v>
+      <c r="D26" s="21" t="n">
+        <v>45480.89709490741</v>
       </c>
     </row>
     <row r="27">
@@ -1065,10 +1067,10 @@
         </is>
       </c>
       <c r="C27" s="19" t="n">
-        <v>13</v>
-      </c>
-      <c r="D27" s="22" t="n">
-        <v>45475</v>
+        <v>34</v>
+      </c>
+      <c r="D27" s="21" t="n">
+        <v>45514.18777777778</v>
       </c>
     </row>
     <row r="28">
@@ -1083,10 +1085,10 @@
         </is>
       </c>
       <c r="C28" s="19" t="n">
-        <v>15</v>
-      </c>
-      <c r="D28" s="22" t="n">
-        <v>45474</v>
+        <v>53</v>
+      </c>
+      <c r="D28" s="21" t="n">
+        <v>45516.12556712963</v>
       </c>
     </row>
     <row r="29">
@@ -1101,10 +1103,10 @@
         </is>
       </c>
       <c r="C29" s="19" t="n">
-        <v>15</v>
-      </c>
-      <c r="D29" s="22" t="n">
-        <v>45474</v>
+        <v>53</v>
+      </c>
+      <c r="D29" s="21" t="n">
+        <v>45516.12556712963</v>
       </c>
     </row>
     <row r="30">
@@ -1119,10 +1121,10 @@
         </is>
       </c>
       <c r="C30" s="19" t="n">
-        <v>15</v>
-      </c>
-      <c r="D30" s="22" t="n">
-        <v>45474</v>
+        <v>52</v>
+      </c>
+      <c r="D30" s="21" t="n">
+        <v>45516.12629629629</v>
       </c>
     </row>
     <row r="31">
@@ -1137,34 +1139,34 @@
         </is>
       </c>
       <c r="C31" s="19" t="n">
-        <v>17</v>
-      </c>
-      <c r="D31" s="22" t="n">
-        <v>45474</v>
+        <v>94</v>
+      </c>
+      <c r="D31" s="21" t="n">
+        <v>45515.91709490741</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="19" t="inlineStr">
         <is>
-          <t>_GIG-vcenter6</t>
+          <t>_CentOS_6-mors</t>
         </is>
       </c>
       <c r="B32" s="19" t="inlineStr">
         <is>
-          <t>Success</t>
+          <t>Error</t>
         </is>
       </c>
       <c r="C32" s="19" t="n">
-        <v>1</v>
-      </c>
-      <c r="D32" s="22" t="n">
-        <v>45480</v>
+        <v>6</v>
+      </c>
+      <c r="D32" s="21" t="n">
+        <v>45471.53050925926</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="19" t="inlineStr">
         <is>
-          <t>_RHEL7.1-krezus3</t>
+          <t>_ESET_MDM_VA</t>
         </is>
       </c>
       <c r="B33" s="19" t="inlineStr">
@@ -1173,16 +1175,16 @@
         </is>
       </c>
       <c r="C33" s="19" t="n">
-        <v>15</v>
-      </c>
-      <c r="D33" s="22" t="n">
-        <v>45474</v>
+        <v>4</v>
+      </c>
+      <c r="D33" s="21" t="n">
+        <v>45514.98893518518</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="19" t="inlineStr">
         <is>
-          <t>_RHEL9-quatraDB</t>
+          <t>_GIG-vcenter6</t>
         </is>
       </c>
       <c r="B34" s="19" t="inlineStr">
@@ -1191,16 +1193,16 @@
         </is>
       </c>
       <c r="C34" s="19" t="n">
-        <v>16</v>
-      </c>
-      <c r="D34" s="22" t="n">
-        <v>45474</v>
+        <v>1</v>
+      </c>
+      <c r="D34" s="21" t="n">
+        <v>45480.91506944445</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="19" t="inlineStr">
         <is>
-          <t>_RHEL9_quatraApp</t>
+          <t>_RHEL7.1-krezus3</t>
         </is>
       </c>
       <c r="B35" s="19" t="inlineStr">
@@ -1209,16 +1211,16 @@
         </is>
       </c>
       <c r="C35" s="19" t="n">
-        <v>16</v>
-      </c>
-      <c r="D35" s="22" t="n">
-        <v>45474</v>
+        <v>56</v>
+      </c>
+      <c r="D35" s="21" t="n">
+        <v>45516.02188657408</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="19" t="inlineStr">
         <is>
-          <t>_Ubuntu-20.04-moskit_85</t>
+          <t>_RHEL9-quatraDB</t>
         </is>
       </c>
       <c r="B36" s="19" t="inlineStr">
@@ -1227,16 +1229,16 @@
         </is>
       </c>
       <c r="C36" s="19" t="n">
-        <v>13</v>
-      </c>
-      <c r="D36" s="22" t="n">
-        <v>45475</v>
+        <v>57</v>
+      </c>
+      <c r="D36" s="21" t="n">
+        <v>45516.02141203704</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="19" t="inlineStr">
         <is>
-          <t>_Win2003_atlas.gig.local</t>
+          <t>_RHEL9_quatraApp</t>
         </is>
       </c>
       <c r="B37" s="19" t="inlineStr">
@@ -1245,34 +1247,34 @@
         </is>
       </c>
       <c r="C37" s="19" t="n">
-        <v>15</v>
-      </c>
-      <c r="D37" s="22" t="n">
-        <v>45474</v>
+        <v>57</v>
+      </c>
+      <c r="D37" s="21" t="n">
+        <v>45516.02141203704</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="19" t="inlineStr">
         <is>
-          <t>_Win2008R2-IMC</t>
+          <t>_Ubuntu-20.04-moskit_85</t>
         </is>
       </c>
       <c r="B38" s="19" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>Success</t>
         </is>
       </c>
       <c r="C38" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="D38" s="22" t="n">
-        <v>45478</v>
+        <v>38</v>
+      </c>
+      <c r="D38" s="21" t="n">
+        <v>45514.20870370371</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="19" t="inlineStr">
         <is>
-          <t>_Win2008_Apli</t>
+          <t>_Win2003_atlas.gig.local</t>
         </is>
       </c>
       <c r="B39" s="19" t="inlineStr">
@@ -1281,16 +1283,16 @@
         </is>
       </c>
       <c r="C39" s="19" t="n">
-        <v>4</v>
-      </c>
-      <c r="D39" s="22" t="n">
-        <v>45477</v>
+        <v>56</v>
+      </c>
+      <c r="D39" s="21" t="n">
+        <v>45516.02193287037</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="19" t="inlineStr">
         <is>
-          <t>_Win2012R2_manage_rm</t>
+          <t>_Win2008R2-IMC</t>
         </is>
       </c>
       <c r="B40" s="19" t="inlineStr">
@@ -1299,34 +1301,34 @@
         </is>
       </c>
       <c r="C40" s="19" t="n">
-        <v>1</v>
-      </c>
-      <c r="D40" s="22" t="n">
-        <v>45480</v>
+        <v>19</v>
+      </c>
+      <c r="D40" s="21" t="n">
+        <v>45514.83368055556</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="19" t="inlineStr">
         <is>
-          <t>_adgig_dc3_Win2012</t>
+          <t>_Win2008_Apli</t>
         </is>
       </c>
       <c r="B41" s="19" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>Success</t>
         </is>
       </c>
       <c r="C41" s="19" t="n">
-        <v>9</v>
-      </c>
-      <c r="D41" s="22" t="n">
-        <v>45479</v>
+        <v>21</v>
+      </c>
+      <c r="D41" s="21" t="n">
+        <v>45515.81549768519</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="19" t="inlineStr">
         <is>
-          <t>_adgig_pkiCA_W2019</t>
+          <t>_Win2012R2_manage_rm</t>
         </is>
       </c>
       <c r="B42" s="19" t="inlineStr">
@@ -1335,16 +1337,16 @@
         </is>
       </c>
       <c r="C42" s="19" t="n">
-        <v>21</v>
-      </c>
-      <c r="D42" s="22" t="n">
-        <v>45474</v>
+        <v>1</v>
+      </c>
+      <c r="D42" s="21" t="n">
+        <v>45480.89743055555</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="19" t="inlineStr">
         <is>
-          <t>_adgig_rootCA_W2019</t>
+          <t>_adgig_dc3_Win2012</t>
         </is>
       </c>
       <c r="B43" s="19" t="inlineStr">
@@ -1353,52 +1355,52 @@
         </is>
       </c>
       <c r="C43" s="19" t="n">
-        <v>21</v>
-      </c>
-      <c r="D43" s="22" t="n">
-        <v>45474</v>
+        <v>44</v>
+      </c>
+      <c r="D43" s="21" t="n">
+        <v>45516.1296875</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="19" t="inlineStr">
         <is>
-          <t>_adgig_subCA_W2019</t>
+          <t>_adgig_kmsprint_W2019</t>
         </is>
       </c>
       <c r="B44" s="19" t="inlineStr">
         <is>
-          <t>Success</t>
+          <t>Error</t>
         </is>
       </c>
       <c r="C44" s="19" t="n">
-        <v>23</v>
-      </c>
-      <c r="D44" s="22" t="n">
-        <v>45474</v>
+        <v>1</v>
+      </c>
+      <c r="D44" s="21" t="n">
+        <v>45463.39773148148</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="19" t="inlineStr">
         <is>
-          <t>_adgigdata_db_Win2012R2</t>
+          <t>_adgig_pkiCA_W2019</t>
         </is>
       </c>
       <c r="B45" s="19" t="inlineStr">
         <is>
-          <t>Warning</t>
+          <t>Success</t>
         </is>
       </c>
       <c r="C45" s="19" t="n">
-        <v>1</v>
-      </c>
-      <c r="D45" s="22" t="n">
-        <v>45477</v>
+        <v>71</v>
+      </c>
+      <c r="D45" s="21" t="n">
+        <v>45515.88436342592</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="19" t="inlineStr">
         <is>
-          <t>_intragig_orion.gig.local</t>
+          <t>_adgig_rootCA_W2019</t>
         </is>
       </c>
       <c r="B46" s="19" t="inlineStr">
@@ -1407,16 +1409,16 @@
         </is>
       </c>
       <c r="C46" s="19" t="n">
-        <v>4</v>
-      </c>
-      <c r="D46" s="22" t="n">
-        <v>45477</v>
+        <v>74</v>
+      </c>
+      <c r="D46" s="21" t="n">
+        <v>45515.88436342592</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="19" t="inlineStr">
         <is>
-          <t>_intragig_taurus.gig.local</t>
+          <t>_adgig_subCA_W2019</t>
         </is>
       </c>
       <c r="B47" s="19" t="inlineStr">
@@ -1425,34 +1427,34 @@
         </is>
       </c>
       <c r="C47" s="19" t="n">
-        <v>4</v>
-      </c>
-      <c r="D47" s="22" t="n">
-        <v>45477</v>
+        <v>72</v>
+      </c>
+      <c r="D47" s="21" t="n">
+        <v>45515.87553240741</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="19" t="inlineStr">
         <is>
-          <t>_intragig_web-srv_W2019</t>
+          <t>_adgigdata_db_Win2012R2</t>
         </is>
       </c>
       <c r="B48" s="19" t="inlineStr">
         <is>
-          <t>Success</t>
+          <t>Warning</t>
         </is>
       </c>
       <c r="C48" s="19" t="n">
-        <v>4</v>
-      </c>
-      <c r="D48" s="22" t="n">
-        <v>45477</v>
+        <v>1</v>
+      </c>
+      <c r="D48" s="21" t="n">
+        <v>45477.98103009259</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="19" t="inlineStr">
         <is>
-          <t>adm_VCSA-c1</t>
+          <t>_esetra_new_rm</t>
         </is>
       </c>
       <c r="B49" s="19" t="inlineStr">
@@ -1461,16 +1463,16 @@
         </is>
       </c>
       <c r="C49" s="19" t="n">
-        <v>1</v>
-      </c>
-      <c r="D49" s="22" t="n">
-        <v>45480</v>
+        <v>4</v>
+      </c>
+      <c r="D49" s="21" t="n">
+        <v>45514.98893518518</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="19" t="inlineStr">
         <is>
-          <t>kop-esmc-Centos</t>
+          <t>_fortianalyzer</t>
         </is>
       </c>
       <c r="B50" s="19" t="inlineStr">
@@ -1479,290 +1481,338 @@
         </is>
       </c>
       <c r="C50" s="19" t="n">
-        <v>1</v>
-      </c>
-      <c r="D50" s="22" t="n">
-        <v>45481</v>
+        <v>4</v>
+      </c>
+      <c r="D50" s="21" t="n">
+        <v>45514.86</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="19" t="inlineStr">
+        <is>
+          <t>_fortigate_proxy</t>
+        </is>
+      </c>
+      <c r="B51" s="19" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="C51" s="19" t="n">
+        <v>4</v>
+      </c>
+      <c r="D51" s="21" t="n">
+        <v>45514.86528935185</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="18" t="inlineStr">
-        <is>
-          <t>Machine Backup Error Rate</t>
-        </is>
-      </c>
-      <c r="B52" s="23" t="n"/>
+      <c r="A52" s="19" t="inlineStr">
+        <is>
+          <t>_intragig_orion.gig.local</t>
+        </is>
+      </c>
+      <c r="B52" s="19" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="C52" s="19" t="n">
+        <v>21</v>
+      </c>
+      <c r="D52" s="21" t="n">
+        <v>45515.81289351852</v>
+      </c>
     </row>
     <row r="53">
-      <c r="A53" s="20" t="inlineStr">
-        <is>
-          <t>Machine</t>
-        </is>
-      </c>
-      <c r="B53" s="20" t="inlineStr">
-        <is>
-          <t>Error Rate</t>
-        </is>
+      <c r="A53" s="19" t="inlineStr">
+        <is>
+          <t>_intragig_taurus.gig.local</t>
+        </is>
+      </c>
+      <c r="B53" s="19" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="C53" s="19" t="n">
+        <v>21</v>
+      </c>
+      <c r="D53" s="21" t="n">
+        <v>45515.81288194445</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="19" t="inlineStr">
         <is>
-          <t>Ubuntu_22.04-saturn</t>
-        </is>
-      </c>
-      <c r="B54" s="19" t="n">
-        <v>0.8</v>
+          <t>_intragig_web-srv_W2019</t>
+        </is>
+      </c>
+      <c r="B54" s="19" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="C54" s="19" t="n">
+        <v>21</v>
+      </c>
+      <c r="D54" s="21" t="n">
+        <v>45515.81461805556</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="19" t="inlineStr">
         <is>
-          <t>_Win2008R2-IMC</t>
-        </is>
-      </c>
-      <c r="B55" s="19" t="n">
-        <v>0.8</v>
+          <t>adm_VCSA-c1</t>
+        </is>
+      </c>
+      <c r="B55" s="19" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="C55" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="D55" s="21" t="n">
+        <v>45480.82</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="19" t="inlineStr">
         <is>
-          <t>_Ubuntu-20.04-moskit_85</t>
-        </is>
-      </c>
-      <c r="B56" s="19" t="n">
-        <v>0.6923076923076923</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="19" t="inlineStr">
-        <is>
-          <t>Ubuntu_22.04-jowisz</t>
-        </is>
-      </c>
-      <c r="B57" s="19" t="n">
-        <v>0.6666666666666666</v>
+          <t>kop-esmc-Centos</t>
+        </is>
+      </c>
+      <c r="B56" s="19" t="inlineStr">
+        <is>
+          <t>Success</t>
+        </is>
+      </c>
+      <c r="C56" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="D56" s="21" t="n">
+        <v>45481.67693287037</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="19" t="inlineStr">
-        <is>
-          <t>Ubuntu_22.04.3-wug-ubuntu</t>
-        </is>
-      </c>
-      <c r="B58" s="19" t="n">
-        <v>0.6153846153846154</v>
-      </c>
+      <c r="A58" s="18" t="inlineStr">
+        <is>
+          <t>Machine Backup Error Rate</t>
+        </is>
+      </c>
+      <c r="B58" s="22" t="n"/>
     </row>
     <row r="59">
-      <c r="A59" s="19" t="inlineStr">
-        <is>
-          <t>Windows_2019-wug-windows</t>
-        </is>
-      </c>
-      <c r="B59" s="19" t="n">
-        <v>0.6153846153846154</v>
+      <c r="A59" s="20" t="inlineStr">
+        <is>
+          <t>Machine</t>
+        </is>
+      </c>
+      <c r="B59" s="20" t="inlineStr">
+        <is>
+          <t>Error Rate</t>
+        </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="19" t="inlineStr">
         <is>
-          <t>_adgig_subCA_W2019</t>
+          <t>_CentOS_6-mors</t>
         </is>
       </c>
       <c r="B60" s="19" t="n">
-        <v>0.5217391304347826</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="19" t="inlineStr">
         <is>
-          <t>_adgig_pkiCA_W2019</t>
+          <t>_adgig_kmsprint_W2019</t>
         </is>
       </c>
       <c r="B61" s="19" t="n">
-        <v>0.4761904761904762</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="19" t="inlineStr">
         <is>
-          <t>_adgig_rootCA_W2019</t>
+          <t>_Ubuntu-20.04-moskit_85</t>
         </is>
       </c>
       <c r="B62" s="19" t="n">
-        <v>0.4761904761904762</v>
+        <v>0.5263157894736842</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="19" t="inlineStr">
         <is>
-          <t>_adgig_dc3_Win2012</t>
+          <t>Windows_2019-wug-windows</t>
         </is>
       </c>
       <c r="B63" s="19" t="n">
-        <v>0.4444444444444444</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="19" t="inlineStr">
         <is>
-          <t>_CentOS6.2-konar</t>
+          <t>_adgig_rootCA_W2019</t>
         </is>
       </c>
       <c r="B64" s="19" t="n">
-        <v>0.4117647058823529</v>
+        <v>0.472972972972973</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="19" t="inlineStr">
         <is>
-          <t>_RHEL9-quatraDB</t>
+          <t>_adgig_subCA_W2019</t>
         </is>
       </c>
       <c r="B65" s="19" t="n">
-        <v>0.3125</v>
+        <v>0.4583333333333333</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="19" t="inlineStr">
         <is>
-          <t>_RHEL9_quatraApp</t>
+          <t>Ubuntu_22.04.3-wug-ubuntu</t>
         </is>
       </c>
       <c r="B66" s="19" t="n">
-        <v>0.3125</v>
+        <v>0.4571428571428571</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="19" t="inlineStr">
         <is>
-          <t>_CCTW_Ansys-Win2012</t>
+          <t>_adgig_pkiCA_W2019</t>
         </is>
       </c>
       <c r="B67" s="19" t="n">
-        <v>0.2666666666666667</v>
+        <v>0.4507042253521127</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="19" t="inlineStr">
         <is>
-          <t>_CCTW_LIMS_Win2012_app</t>
+          <t>Ubuntu_22.04-saturn</t>
         </is>
       </c>
       <c r="B68" s="19" t="n">
-        <v>0.2666666666666667</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="19" t="inlineStr">
         <is>
-          <t>_CCTW_LIMS_CentOS_dbs</t>
+          <t>_CentOS6.2-konar</t>
         </is>
       </c>
       <c r="B69" s="19" t="n">
-        <v>0.2666666666666667</v>
+        <v>0.3829787234042553</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="19" t="inlineStr">
         <is>
-          <t>_RHEL7.1-krezus3</t>
+          <t>_adgig_dc3_Win2012</t>
         </is>
       </c>
       <c r="B70" s="19" t="n">
-        <v>0.2666666666666667</v>
+        <v>0.3636363636363636</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="19" t="inlineStr">
         <is>
-          <t>_Win2003_atlas.gig.local</t>
+          <t>_CCTW_Ansys-Win2012</t>
         </is>
       </c>
       <c r="B71" s="19" t="n">
-        <v>0.2666666666666667</v>
+        <v>0.3396226415094339</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="19" t="inlineStr">
         <is>
-          <t>_GIG-vcenter6</t>
+          <t>_CCTW_LIMS_CentOS_dbs</t>
         </is>
       </c>
       <c r="B72" s="19" t="n">
-        <v>0</v>
+        <v>0.3396226415094339</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="19" t="inlineStr">
         <is>
-          <t>Ubuntu_22.04-saturn1</t>
+          <t>_CCTW_LIMS_Win2012_app</t>
         </is>
       </c>
       <c r="B73" s="19" t="n">
-        <v>0</v>
+        <v>0.3269230769230769</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="19" t="inlineStr">
         <is>
-          <t>Windows2012R2_sw_mancon</t>
+          <t>Ubuntu_22.04-jowisz</t>
         </is>
       </c>
       <c r="B74" s="19" t="n">
-        <v>0</v>
+        <v>0.3157894736842105</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="19" t="inlineStr">
         <is>
-          <t>_Win2008_Apli</t>
+          <t>_RHEL9-quatraDB</t>
         </is>
       </c>
       <c r="B75" s="19" t="n">
-        <v>0</v>
+        <v>0.2982456140350877</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="19" t="inlineStr">
         <is>
-          <t>_Win2012R2_manage_rm</t>
+          <t>_RHEL9_quatraApp</t>
         </is>
       </c>
       <c r="B76" s="19" t="n">
-        <v>0</v>
+        <v>0.2982456140350877</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="19" t="inlineStr">
         <is>
-          <t>_adgigdata_db_Win2012R2</t>
+          <t>_RHEL7.1-krezus3</t>
         </is>
       </c>
       <c r="B77" s="19" t="n">
-        <v>0</v>
+        <v>0.2857142857142857</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="19" t="inlineStr">
         <is>
-          <t>_intragig_orion.gig.local</t>
+          <t>_Win2003_atlas.gig.local</t>
         </is>
       </c>
       <c r="B78" s="19" t="n">
-        <v>0</v>
+        <v>0.2857142857142857</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="19" t="inlineStr">
         <is>
-          <t>_intragig_taurus.gig.local</t>
+          <t>_Win2008R2-IMC</t>
         </is>
       </c>
       <c r="B79" s="19" t="n">
-        <v>0</v>
+        <v>0.2631578947368421</v>
       </c>
     </row>
     <row r="80">
@@ -1772,37 +1822,157 @@
         </is>
       </c>
       <c r="B80" s="19" t="n">
-        <v>0</v>
+        <v>0.1904761904761905</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="19" t="inlineStr">
         <is>
-          <t>adm_VCSA-c1</t>
+          <t>_intragig_taurus.gig.local</t>
         </is>
       </c>
       <c r="B81" s="19" t="n">
-        <v>0</v>
+        <v>0.1904761904761905</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="19" t="inlineStr">
         <is>
+          <t>_Win2008_Apli</t>
+        </is>
+      </c>
+      <c r="B82" s="19" t="n">
+        <v>0.1904761904761905</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="19" t="inlineStr">
+        <is>
+          <t>_intragig_orion.gig.local</t>
+        </is>
+      </c>
+      <c r="B83" s="19" t="n">
+        <v>0.1904761904761905</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="19" t="inlineStr">
+        <is>
+          <t>Ubuntu_22.04-saturn1</t>
+        </is>
+      </c>
+      <c r="B84" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="19" t="inlineStr">
+        <is>
+          <t>Windows2012R2_sw_mancon</t>
+        </is>
+      </c>
+      <c r="B85" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="19" t="inlineStr">
+        <is>
+          <t>_ESET_MDM_VA</t>
+        </is>
+      </c>
+      <c r="B86" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="19" t="inlineStr">
+        <is>
+          <t>_GIG-vcenter6</t>
+        </is>
+      </c>
+      <c r="B87" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="19" t="inlineStr">
+        <is>
+          <t>_Win2012R2_manage_rm</t>
+        </is>
+      </c>
+      <c r="B88" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="19" t="inlineStr">
+        <is>
+          <t>_adgigdata_db_Win2012R2</t>
+        </is>
+      </c>
+      <c r="B89" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="19" t="inlineStr">
+        <is>
+          <t>_esetra_new_rm</t>
+        </is>
+      </c>
+      <c r="B90" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="19" t="inlineStr">
+        <is>
+          <t>_fortigate_proxy</t>
+        </is>
+      </c>
+      <c r="B91" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="19" t="inlineStr">
+        <is>
+          <t>_fortianalyzer</t>
+        </is>
+      </c>
+      <c r="B92" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="19" t="inlineStr">
+        <is>
+          <t>adm_VCSA-c1</t>
+        </is>
+      </c>
+      <c r="B93" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="19" t="inlineStr">
+        <is>
           <t>kop-esmc-Centos</t>
         </is>
       </c>
-      <c r="B82" s="19" t="n">
+      <c r="B94" s="19" t="n">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="A52:B52"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="A20:D20"/>
     <mergeCell ref="D14:E14"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A58:B58"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
